--- a/Data/GGEE_23_Pre_Survey_Likert.xlsx
+++ b/Data/GGEE_23_Pre_Survey_Likert.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadulany/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C498424-FCB0-954F-BEEF-2F1AAC5D3927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865F384B-C219-2649-921E-EB2D8F86B58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="2420" windowWidth="27240" windowHeight="16440" xr2:uid="{ABC58496-FD7F-1E4E-B9DF-EF51DE43226A}"/>
+    <workbookView xWindow="5140" yWindow="500" windowWidth="20100" windowHeight="15660" xr2:uid="{ABC58496-FD7F-1E4E-B9DF-EF51DE43226A}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp_Likert" sheetId="1" r:id="rId1"/>
     <sheet name="Exp_Raw" sheetId="2" r:id="rId2"/>
+    <sheet name="Enjoy Code_likert" sheetId="3" r:id="rId3"/>
+    <sheet name="Enjoy Code_Raw" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Exp_Raw!$A$1:$A$205</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="10">
   <si>
     <t xml:space="preserve">Item </t>
   </si>
@@ -439,12 +441,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -490,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F92C082-55A0-1347-8E5E-ACC890EE7DC0}">
   <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D6"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1585,4 +1591,167 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152B5771-FC94-AB43-84F7-4489E6F07572}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>21.078431372549019</v>
+      </c>
+      <c r="C2">
+        <v>44.117647058823529</v>
+      </c>
+      <c r="D2">
+        <v>29.411764705882355</v>
+      </c>
+      <c r="E2">
+        <v>5.3921568627450984</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3CE4BB-8084-7A4C-9ACF-95736DED4B73}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIF($A$2:$A$205, "*")</f>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIF($A$2:$A$205, "No experience")</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>(C3/$C$2)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIF($A$2:$A$205, "A little experience")</f>
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D6" si="0">(C4/$C$2)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIF($A$2:$A$205, "Some experience")</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIF($A$2:$A$205, "A lot of experience")</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/GGEE_23_Pre_Survey_Likert.xlsx
+++ b/Data/GGEE_23_Pre_Survey_Likert.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadulany/Documents/GitHub/GGEESummer23/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviarandell/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865F384B-C219-2649-921E-EB2D8F86B58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97F743C-01D6-A840-92ED-8DADDFCD7009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="500" windowWidth="20100" windowHeight="15660" xr2:uid="{ABC58496-FD7F-1E4E-B9DF-EF51DE43226A}"/>
+    <workbookView xWindow="14100" yWindow="500" windowWidth="14700" windowHeight="16080" firstSheet="1" activeTab="5" xr2:uid="{ABC58496-FD7F-1E4E-B9DF-EF51DE43226A}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp_Likert" sheetId="1" r:id="rId1"/>
     <sheet name="Exp_Raw" sheetId="2" r:id="rId2"/>
     <sheet name="Enjoy Code_likert" sheetId="3" r:id="rId3"/>
     <sheet name="Enjoy Code_Raw" sheetId="4" r:id="rId4"/>
+    <sheet name="Gender_Raw" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Exp_Raw!$A$1:$A$205</definedName>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="20">
   <si>
     <t xml:space="preserve">Item </t>
   </si>
@@ -73,12 +75,42 @@
   <si>
     <t>Percent</t>
   </si>
+  <si>
+    <t>I liked it a little</t>
+  </si>
+  <si>
+    <t>I disliked it a great deal</t>
+  </si>
+  <si>
+    <t>I disliked it a little</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I liked it a little </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I liked it a great deal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much did you enjoy coding? </t>
+  </si>
+  <si>
+    <t>I liked it a great deal</t>
+  </si>
+  <si>
+    <t>Enjoy Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I disliked it a great deal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I disliked it a little </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,8 +126,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +153,14 @@
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,14 +168,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF230F4-4523-174B-9ACC-5AB64BF9EAC8}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -1595,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152B5771-FC94-AB43-84F7-4489E6F07572}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1608,9 +1674,10 @@
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1618,31 +1685,52 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>21.078431372549019</v>
+        <v>21.568627450980394</v>
       </c>
       <c r="C2">
-        <v>44.117647058823529</v>
+        <v>1.4705882352941175</v>
       </c>
       <c r="D2">
-        <v>29.411764705882355</v>
+        <v>3.4313725490196081</v>
       </c>
       <c r="E2">
-        <v>5.3921568627450984</v>
-      </c>
+        <v>32.843137254901961</v>
+      </c>
+      <c r="F2">
+        <v>40.686274509803923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1651,107 +1739,1134 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3CE4BB-8084-7A4C-9ACF-95736DED4B73}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B3" sqref="B3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C2">
         <f>COUNTIF($A$2:$A$205, "*")</f>
-        <v>6</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3">
         <f>COUNTIF($A$2:$A$205, "No experience")</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <f>(C3/$C$2)*100</f>
-        <v>0</v>
+        <v>21.568627450980394</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+      <c r="A4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <f>COUNTIF($A$2:$A$205, "A little experience")</f>
-        <v>6</v>
+        <f>COUNTIF($A$2:$A$205, "I disliked it a great deal")</f>
+        <v>3</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D6" si="0">(C4/$C$2)*100</f>
-        <v>100</v>
+        <f t="shared" ref="D4:D7" si="0">(C4/$C$2)*100</f>
+        <v>1.4705882352941175</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
+      <c r="A5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <f>COUNTIF($A$2:$A$205, "Some experience")</f>
-        <v>0</v>
+        <f>COUNTIF($A$2:$A$205, "I disliked it a little")</f>
+        <v>7</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4313725490196081</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
+      <c r="A6" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <f>COUNTIF($A$2:$A$205, "A lot of experience")</f>
-        <v>0</v>
+        <f>COUNTIF($A$2:$A$205, "I liked it a little")</f>
+        <v>67</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32.843137254901961</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIF($A$2:$A$205, "I liked it a great deal")</f>
+        <v>83</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>40.686274509803923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828FEE3F-13BB-B944-BD96-7F4D096714FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5B326E-5806-074E-8084-988760A03390}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/GGEE_23_Pre_Survey_Likert.xlsx
+++ b/Data/GGEE_23_Pre_Survey_Likert.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviarandell/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97F743C-01D6-A840-92ED-8DADDFCD7009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68132EA6-0ED3-0C46-95B3-159534F3C39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="500" windowWidth="14700" windowHeight="16080" firstSheet="1" activeTab="5" xr2:uid="{ABC58496-FD7F-1E4E-B9DF-EF51DE43226A}"/>
+    <workbookView xWindow="6000" yWindow="500" windowWidth="14700" windowHeight="16080" firstSheet="1" activeTab="2" xr2:uid="{ABC58496-FD7F-1E4E-B9DF-EF51DE43226A}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp_Likert" sheetId="1" r:id="rId1"/>
     <sheet name="Exp_Raw" sheetId="2" r:id="rId2"/>
     <sheet name="Enjoy Code_likert" sheetId="3" r:id="rId3"/>
     <sheet name="Enjoy Code_Raw" sheetId="4" r:id="rId4"/>
-    <sheet name="Gender_Raw" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Exp_Raw!$A$1:$A$205</definedName>
@@ -1663,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152B5771-FC94-AB43-84F7-4489E6F07572}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2843,30 +2841,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828FEE3F-13BB-B944-BD96-7F4D096714FF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5B326E-5806-074E-8084-988760A03390}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/GGEE_23_Pre_Survey_Likert.xlsx
+++ b/Data/GGEE_23_Pre_Survey_Likert.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviarandell/Documents/GitHub/GGEESummer23/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadulany/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68132EA6-0ED3-0C46-95B3-159534F3C39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0473F1B8-89B8-F644-8426-EE7C84B35402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="500" windowWidth="14700" windowHeight="16080" firstSheet="1" activeTab="2" xr2:uid="{ABC58496-FD7F-1E4E-B9DF-EF51DE43226A}"/>
+    <workbookView xWindow="6000" yWindow="500" windowWidth="27380" windowHeight="16780" activeTab="5" xr2:uid="{ABC58496-FD7F-1E4E-B9DF-EF51DE43226A}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp_Likert" sheetId="1" r:id="rId1"/>
     <sheet name="Exp_Raw" sheetId="2" r:id="rId2"/>
     <sheet name="Enjoy Code_likert" sheetId="3" r:id="rId3"/>
     <sheet name="Enjoy Code_Raw" sheetId="4" r:id="rId4"/>
+    <sheet name="Exp" sheetId="5" r:id="rId5"/>
+    <sheet name="Enjoy" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Exp_Raw!$A$1:$A$205</definedName>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="23">
   <si>
     <t xml:space="preserve">Item </t>
   </si>
@@ -103,12 +105,21 @@
   <si>
     <t xml:space="preserve">I disliked it a little </t>
   </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,8 +149,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,8 +176,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -177,17 +202,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +560,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,7 +616,7 @@
   <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="C6" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1661,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152B5771-FC94-AB43-84F7-4489E6F07572}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1740,7 +1795,7 @@
   <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D7"/>
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2841,4 +2896,180 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8C7C78-2561-C14D-9B68-60929A41B84F}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD00BDC-A08B-D54D-A004-3A8F923258BE}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/GGEE_23_Pre_Survey_Likert.xlsx
+++ b/Data/GGEE_23_Pre_Survey_Likert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadulany/Documents/GitHub/GGEESummer23/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristachisholm/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0473F1B8-89B8-F644-8426-EE7C84B35402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F07577F-4385-9848-9E46-70DE1315DF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="500" windowWidth="27380" windowHeight="16780" activeTab="5" xr2:uid="{ABC58496-FD7F-1E4E-B9DF-EF51DE43226A}"/>
+    <workbookView xWindow="2020" yWindow="740" windowWidth="27380" windowHeight="16780" activeTab="4" xr2:uid="{ABC58496-FD7F-1E4E-B9DF-EF51DE43226A}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp_Likert" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="32">
   <si>
     <t xml:space="preserve">Item </t>
   </si>
@@ -113,6 +113,33 @@
   </si>
   <si>
     <t>Level</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - I liked it a great deal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - I liked it a little </t>
+  </si>
+  <si>
+    <t>1 - No experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - I disliked it a great deal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - I disliked it a little </t>
+  </si>
+  <si>
+    <t>2 - A little experience</t>
+  </si>
+  <si>
+    <t>3 - Some experience</t>
+  </si>
+  <si>
+    <t>4 - A lot of experience</t>
   </si>
 </sst>
 </file>
@@ -183,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -226,11 +253,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -243,6 +279,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2900,10 +2940,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8C7C78-2561-C14D-9B68-60929A41B84F}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2913,7 +2953,7 @@
     <col min="3" max="3" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
@@ -2923,64 +2963,86 @@
       <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="9">
+        <f>(C2/204)*100</f>
+        <v>21.078431372549019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D5" si="0">(C3/204)*100</f>
+        <v>44.117647058823529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>29.411764705882355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>5.3921568627450984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
     </row>
   </sheetData>
@@ -2990,10 +3052,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD00BDC-A08B-D54D-A004-3A8F923258BE}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3003,7 +3065,7 @@
     <col min="3" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
@@ -3013,60 +3075,83 @@
       <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="9">
+        <f>(C2/204)*100</f>
+        <v>21.568627450980394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D6" si="0">(C3/204)*100</f>
+        <v>1.4705882352941175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>3.4313725490196081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>32.843137254901961</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>83</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>40.686274509803923</v>
       </c>
     </row>
   </sheetData>

--- a/Data/GGEE_23_Pre_Survey_Likert.xlsx
+++ b/Data/GGEE_23_Pre_Survey_Likert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristachisholm/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F07577F-4385-9848-9E46-70DE1315DF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53DC039-E063-2148-96EC-F278007BE04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="740" windowWidth="27380" windowHeight="16780" activeTab="4" xr2:uid="{ABC58496-FD7F-1E4E-B9DF-EF51DE43226A}"/>
+    <workbookView xWindow="2020" yWindow="740" windowWidth="27380" windowHeight="16780" activeTab="6" xr2:uid="{ABC58496-FD7F-1E4E-B9DF-EF51DE43226A}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp_Likert" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Enjoy Code_Raw" sheetId="4" r:id="rId4"/>
     <sheet name="Exp" sheetId="5" r:id="rId5"/>
     <sheet name="Enjoy" sheetId="6" r:id="rId6"/>
+    <sheet name="AI Exp" sheetId="7" r:id="rId7"/>
+    <sheet name="AI Enj" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Exp_Raw!$A$1:$A$205</definedName>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="34">
   <si>
     <t xml:space="preserve">Item </t>
   </si>
@@ -141,6 +143,12 @@
   <si>
     <t>4 - A lot of experience</t>
   </si>
+  <si>
+    <t>How much experience do you have with artificial intelligence?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much did you enjoy artificial intelligence? </t>
+  </si>
 </sst>
 </file>
 
@@ -210,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -262,11 +270,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -283,6 +304,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2942,8 +2966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8C7C78-2561-C14D-9B68-60929A41B84F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3055,7 +3079,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3157,4 +3181,297 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD91CD3-97E2-E64E-8E0F-9746DDBC6DA5}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9">
+        <f>(C2/10)*100</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D5" si="0">(C3/10)*100</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H22" s="4"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H23" s="3"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H24" s="4"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H25" s="3"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H26" s="4"/>
+      <c r="I26" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49513850-03CE-2E4F-AE40-AB5706945008}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9">
+        <f>(C2/10)*100</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D6" si="0">(C3/10)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>